--- a/Code/Results/Cases/Case_9_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.40490421624764</v>
+        <v>12.38891197625545</v>
       </c>
       <c r="C2">
-        <v>7.872080402541262</v>
+        <v>7.841440937954762</v>
       </c>
       <c r="D2">
-        <v>7.261981336872365</v>
+        <v>7.396750051270337</v>
       </c>
       <c r="E2">
-        <v>10.00663672618845</v>
+        <v>10.08994765775434</v>
       </c>
       <c r="F2">
-        <v>22.04352536387923</v>
+        <v>21.50584562367037</v>
       </c>
       <c r="G2">
-        <v>23.84114992391731</v>
+        <v>22.46823543128339</v>
       </c>
       <c r="H2">
-        <v>2.506529405157477</v>
+        <v>2.438030113265888</v>
       </c>
       <c r="I2">
-        <v>3.279434862500295</v>
+        <v>3.118401497850918</v>
       </c>
       <c r="J2">
-        <v>9.662530590454789</v>
+        <v>9.72105448741228</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.425426565665695</v>
+        <v>12.05953180596495</v>
       </c>
       <c r="M2">
-        <v>11.27245473916615</v>
+        <v>9.658042757505989</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.435879245680145</v>
       </c>
       <c r="O2">
-        <v>11.13209024397958</v>
+        <v>11.36881232051467</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.78365499099884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.23698809545725</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.33319078048285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.63441672419694</v>
+        <v>11.6544430732248</v>
       </c>
       <c r="C3">
-        <v>7.605354236829581</v>
+        <v>7.455279490981169</v>
       </c>
       <c r="D3">
-        <v>6.941846557940899</v>
+        <v>7.068259976647215</v>
       </c>
       <c r="E3">
-        <v>9.669900704689569</v>
+        <v>9.760147541587125</v>
       </c>
       <c r="F3">
-        <v>21.84507306027391</v>
+        <v>21.35420923909755</v>
       </c>
       <c r="G3">
-        <v>23.71903325866025</v>
+        <v>22.46523133205449</v>
       </c>
       <c r="H3">
-        <v>2.696867068125214</v>
+        <v>2.62007632105245</v>
       </c>
       <c r="I3">
-        <v>3.418655877308464</v>
+        <v>3.241173579968552</v>
       </c>
       <c r="J3">
-        <v>9.71254728860386</v>
+        <v>9.748497797165207</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.33566115170356</v>
+        <v>12.22880819564502</v>
       </c>
       <c r="M3">
-        <v>10.70119088940037</v>
+        <v>9.753715451999778</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.353128934168356</v>
       </c>
       <c r="O3">
-        <v>10.59566040628656</v>
+        <v>10.78312176300886</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.82069962087809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.68776413182781</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.39832034350611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.13238344465006</v>
+        <v>11.17638663024768</v>
       </c>
       <c r="C4">
-        <v>7.439354839859622</v>
+        <v>7.2130897757397</v>
       </c>
       <c r="D4">
-        <v>6.739081678827794</v>
+        <v>6.860505232281939</v>
       </c>
       <c r="E4">
-        <v>9.457041176263141</v>
+        <v>9.55202031497228</v>
       </c>
       <c r="F4">
-        <v>21.72880205595697</v>
+        <v>21.26576956873197</v>
       </c>
       <c r="G4">
-        <v>23.65344042590392</v>
+        <v>22.47390877936445</v>
       </c>
       <c r="H4">
-        <v>2.818197004285997</v>
+        <v>2.736154549502819</v>
       </c>
       <c r="I4">
-        <v>3.508025966651881</v>
+        <v>3.320291076786133</v>
       </c>
       <c r="J4">
-        <v>9.745645438526275</v>
+        <v>9.766245802543542</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.279129692808646</v>
+        <v>12.33567207989211</v>
       </c>
       <c r="M4">
-        <v>10.3342610613515</v>
+        <v>9.827892849620071</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.30103778933601</v>
       </c>
       <c r="O4">
-        <v>10.25327660084676</v>
+        <v>10.40702173255407</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.84848685677779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.33713556399643</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.4423544631249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.91737508304491</v>
+        <v>10.97177281975698</v>
       </c>
       <c r="C5">
-        <v>7.37958938250073</v>
+        <v>7.122565771449797</v>
       </c>
       <c r="D5">
-        <v>6.656922366954523</v>
+        <v>6.776283094959576</v>
       </c>
       <c r="E5">
-        <v>9.36906854739537</v>
+        <v>9.466089210636602</v>
       </c>
       <c r="F5">
-        <v>21.67533322217353</v>
+        <v>21.22368533477104</v>
       </c>
       <c r="G5">
-        <v>23.61632435422351</v>
+        <v>22.46777706196218</v>
       </c>
       <c r="H5">
-        <v>2.868974362246021</v>
+        <v>2.784740437666285</v>
       </c>
       <c r="I5">
-        <v>3.548065763106206</v>
+        <v>3.356576687996071</v>
       </c>
       <c r="J5">
-        <v>9.757636706367535</v>
+        <v>9.771666210407627</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.255309581209015</v>
+        <v>12.3749466093784</v>
       </c>
       <c r="M5">
-        <v>10.18270121313371</v>
+        <v>9.859503168669482</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.27907889052829</v>
       </c>
       <c r="O5">
-        <v>10.11245859714239</v>
+        <v>10.25160517139906</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.85584817649947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.19280203823264</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.45632626995295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87736695555228</v>
+        <v>10.93368892679534</v>
       </c>
       <c r="C6">
-        <v>7.379943630076205</v>
+        <v>7.118925611614781</v>
       </c>
       <c r="D6">
-        <v>6.645560286799375</v>
+        <v>6.764487741540204</v>
       </c>
       <c r="E6">
-        <v>9.354645983451503</v>
+        <v>9.452003044422378</v>
       </c>
       <c r="F6">
-        <v>21.65736927752059</v>
+        <v>21.20795273171286</v>
       </c>
       <c r="G6">
-        <v>23.59478229140946</v>
+        <v>22.45199995851025</v>
       </c>
       <c r="H6">
-        <v>2.877718079065021</v>
+        <v>2.793105640021764</v>
       </c>
       <c r="I6">
-        <v>3.558153499768387</v>
+        <v>3.366650073565257</v>
       </c>
       <c r="J6">
-        <v>9.757113650884532</v>
+        <v>9.77009260586015</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.250801808079117</v>
+        <v>12.37540636638664</v>
       </c>
       <c r="M6">
-        <v>10.15966898254859</v>
+        <v>9.862002727048109</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.274905840437017</v>
       </c>
       <c r="O6">
-        <v>10.09114521727253</v>
+        <v>10.22786320642301</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.85079360743347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.17081876398429</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.45264706367564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11918665089262</v>
+        <v>11.16393838939272</v>
       </c>
       <c r="C7">
-        <v>7.466438906233074</v>
+        <v>7.240456097292794</v>
       </c>
       <c r="D7">
-        <v>6.744337702152015</v>
+        <v>6.869282612953341</v>
       </c>
       <c r="E7">
-        <v>9.456599175527622</v>
+        <v>9.552578932282319</v>
       </c>
       <c r="F7">
-        <v>21.70314644444902</v>
+        <v>21.22814961641152</v>
       </c>
       <c r="G7">
-        <v>23.61068046426122</v>
+        <v>22.49435891776489</v>
       </c>
       <c r="H7">
-        <v>2.819528457374033</v>
+        <v>2.737888436380514</v>
       </c>
       <c r="I7">
-        <v>3.517494710867352</v>
+        <v>3.331782078620949</v>
       </c>
       <c r="J7">
-        <v>9.738858751251017</v>
+        <v>9.729991485458648</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.277374714753392</v>
+        <v>12.3140374632477</v>
       </c>
       <c r="M7">
-        <v>10.3386150275965</v>
+        <v>9.816518718107645</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.298791006970019</v>
       </c>
       <c r="O7">
-        <v>10.25743175419488</v>
+        <v>10.4103157318857</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.83127227771293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.3416206008088</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.41704916697483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.13259604562617</v>
+        <v>12.12971670960533</v>
       </c>
       <c r="C8">
-        <v>7.816403760946948</v>
+        <v>7.74148953309798</v>
       </c>
       <c r="D8">
-        <v>7.160898650581528</v>
+        <v>7.304462783200773</v>
       </c>
       <c r="E8">
-        <v>9.892821189128657</v>
+        <v>9.981691752922421</v>
       </c>
       <c r="F8">
-        <v>21.94154427736933</v>
+        <v>21.37879326728142</v>
       </c>
       <c r="G8">
-        <v>23.74185929169411</v>
+        <v>22.61594065002199</v>
       </c>
       <c r="H8">
-        <v>2.572044343391688</v>
+        <v>2.502098598104194</v>
       </c>
       <c r="I8">
-        <v>3.337985149686404</v>
+        <v>3.174793575577477</v>
       </c>
       <c r="J8">
-        <v>9.670159723163167</v>
+        <v>9.625529277317339</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.392948857300748</v>
+        <v>12.08027866302646</v>
       </c>
       <c r="M8">
-        <v>11.08692269134803</v>
+        <v>9.662053430220126</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.404051028546551</v>
       </c>
       <c r="O8">
-        <v>10.95739996631921</v>
+        <v>11.17562997208732</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.77263565859824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.0595206275594</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.30366303419665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.90643523869523</v>
+        <v>13.82292994150175</v>
       </c>
       <c r="C9">
-        <v>8.43542447054168</v>
+        <v>8.635743903804858</v>
       </c>
       <c r="D9">
-        <v>7.914526998900843</v>
+        <v>8.081561105041256</v>
       </c>
       <c r="E9">
-        <v>10.69526449324675</v>
+        <v>10.77014799235622</v>
       </c>
       <c r="F9">
-        <v>22.49641727275198</v>
+        <v>21.80130955361075</v>
       </c>
       <c r="G9">
-        <v>24.15032240054089</v>
+        <v>22.78873660792194</v>
       </c>
       <c r="H9">
-        <v>2.120470632992095</v>
+        <v>2.070610983901148</v>
       </c>
       <c r="I9">
-        <v>3.001865185162771</v>
+        <v>2.877406872411838</v>
       </c>
       <c r="J9">
-        <v>9.567210979770493</v>
+        <v>9.54407137962993</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.610472906440293</v>
+        <v>11.69193941324448</v>
       </c>
       <c r="M9">
-        <v>12.41206540897624</v>
+        <v>9.51448363748317</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.604456917176668</v>
       </c>
       <c r="O9">
-        <v>12.21204530903124</v>
+        <v>12.53451657363331</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.72993417060223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.34411029241457</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.17661379369821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.07632247024054</v>
+        <v>14.94542683053485</v>
       </c>
       <c r="C10">
-        <v>8.892885882173804</v>
+        <v>9.258877758176933</v>
       </c>
       <c r="D10">
-        <v>8.35850979567358</v>
+        <v>8.558644062696409</v>
       </c>
       <c r="E10">
-        <v>11.07207268667894</v>
+        <v>11.14399340966364</v>
       </c>
       <c r="F10">
-        <v>22.76965097761117</v>
+        <v>21.91553681402094</v>
       </c>
       <c r="G10">
-        <v>24.30614588990677</v>
+        <v>23.15558086465413</v>
       </c>
       <c r="H10">
-        <v>1.841779593742311</v>
+        <v>1.807972791458409</v>
       </c>
       <c r="I10">
-        <v>2.782300007751251</v>
+        <v>2.688378460934405</v>
       </c>
       <c r="J10">
-        <v>9.472230780664177</v>
+        <v>9.30414921653353</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.693622870427229</v>
+        <v>11.36203116148204</v>
       </c>
       <c r="M10">
-        <v>13.31316558528084</v>
+        <v>9.413478925206293</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.674244189436767</v>
       </c>
       <c r="O10">
-        <v>12.97076488780492</v>
+        <v>13.45257372557778</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.64565055082013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.12297134248801</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.98425203371857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.65913024689675</v>
+        <v>15.53617957222564</v>
       </c>
       <c r="C11">
-        <v>9.17576578257286</v>
+        <v>9.516713167007342</v>
       </c>
       <c r="D11">
-        <v>7.905928190231545</v>
+        <v>8.13265182161325</v>
       </c>
       <c r="E11">
-        <v>9.763443082385034</v>
+        <v>9.839560269901382</v>
       </c>
       <c r="F11">
-        <v>21.58413847781994</v>
+        <v>20.64379738369123</v>
       </c>
       <c r="G11">
-        <v>22.82723312997438</v>
+        <v>22.50834936244816</v>
       </c>
       <c r="H11">
-        <v>2.831108347895965</v>
+        <v>2.814065795370505</v>
       </c>
       <c r="I11">
-        <v>2.73307112742433</v>
+        <v>2.655530702752864</v>
       </c>
       <c r="J11">
-        <v>9.175818851135158</v>
+        <v>8.788191508462992</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.21079743991826</v>
+        <v>10.93489514191721</v>
       </c>
       <c r="M11">
-        <v>13.78740593278676</v>
+        <v>8.996061293368829</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.192728201192844</v>
       </c>
       <c r="O11">
-        <v>12.49632791470085</v>
+        <v>13.91108909784734</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.96743820999257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.64444584810404</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.25725816998517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.9281084691054</v>
+        <v>15.82067104532255</v>
       </c>
       <c r="C12">
-        <v>9.285181842382531</v>
+        <v>9.572048206379975</v>
       </c>
       <c r="D12">
-        <v>7.419008843686488</v>
+        <v>7.649526437074253</v>
       </c>
       <c r="E12">
-        <v>8.669383940508359</v>
+        <v>8.743296661205017</v>
       </c>
       <c r="F12">
-        <v>20.5613811437636</v>
+        <v>19.63057361570378</v>
       </c>
       <c r="G12">
-        <v>21.60491602869456</v>
+        <v>21.69716847023857</v>
       </c>
       <c r="H12">
-        <v>4.202684469062786</v>
+        <v>4.191992572233588</v>
       </c>
       <c r="I12">
-        <v>2.71752406626339</v>
+        <v>2.643446170289908</v>
       </c>
       <c r="J12">
-        <v>8.958121265768423</v>
+        <v>8.546079222661348</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.903717257505211</v>
+        <v>10.70051260023667</v>
       </c>
       <c r="M12">
-        <v>13.99812035869228</v>
+        <v>8.703992860645664</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.892120930916515</v>
       </c>
       <c r="O12">
-        <v>11.92239813196347</v>
+        <v>14.10692378188961</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.44211123353397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.06155301997906</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.7491876337908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.96856461703359</v>
+        <v>15.88359934031819</v>
       </c>
       <c r="C13">
-        <v>9.306755729082514</v>
+        <v>9.521421121638138</v>
       </c>
       <c r="D13">
-        <v>6.873096047887415</v>
+        <v>7.082511632630122</v>
       </c>
       <c r="E13">
-        <v>7.702210926936893</v>
+        <v>7.768505923297969</v>
       </c>
       <c r="F13">
-        <v>19.56359294174696</v>
+        <v>18.74216149809225</v>
       </c>
       <c r="G13">
-        <v>20.44209551373102</v>
+        <v>20.49368121003476</v>
       </c>
       <c r="H13">
-        <v>5.621539010527767</v>
+        <v>5.612448263842191</v>
       </c>
       <c r="I13">
-        <v>2.741954351865704</v>
+        <v>2.663836306502783</v>
       </c>
       <c r="J13">
-        <v>8.778134767983689</v>
+        <v>8.473579992188016</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.725997454058632</v>
+        <v>10.56807437569313</v>
       </c>
       <c r="M13">
-        <v>14.03229609716092</v>
+        <v>8.488486393999496</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.724664367461774</v>
       </c>
       <c r="O13">
-        <v>11.22975058435904</v>
+        <v>14.1267840703151</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.9784622412027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.35397211511559</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.37003441332507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.89191841010133</v>
+        <v>15.82619817609885</v>
       </c>
       <c r="C14">
-        <v>9.290190690067062</v>
+        <v>9.445551558735245</v>
       </c>
       <c r="D14">
-        <v>6.461325745568612</v>
+        <v>6.645326713225668</v>
       </c>
       <c r="E14">
-        <v>7.132787303725709</v>
+        <v>7.192915702267877</v>
       </c>
       <c r="F14">
-        <v>18.87730476940062</v>
+        <v>18.17171918877248</v>
       </c>
       <c r="G14">
-        <v>19.65447565103505</v>
+        <v>19.4939515998587</v>
       </c>
       <c r="H14">
-        <v>6.628272010600783</v>
+        <v>6.61922532104761</v>
       </c>
       <c r="I14">
-        <v>2.780079122126851</v>
+        <v>2.696380139816956</v>
       </c>
       <c r="J14">
-        <v>8.669527184311098</v>
+        <v>8.479099506057633</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.683935105838027</v>
+        <v>10.5127588366355</v>
       </c>
       <c r="M14">
-        <v>13.9784647507895</v>
+        <v>8.374521113270413</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.690271102421457</v>
       </c>
       <c r="O14">
-        <v>10.68468277856251</v>
+        <v>14.06287192809581</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.68292364453769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.795546255594</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.15822061052486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.82065039118689</v>
+        <v>15.76131264394886</v>
       </c>
       <c r="C15">
-        <v>9.277254571563699</v>
+        <v>9.414569004154407</v>
       </c>
       <c r="D15">
-        <v>6.349940743813262</v>
+        <v>6.523299920096057</v>
       </c>
       <c r="E15">
-        <v>7.011235111286542</v>
+        <v>7.070218815845407</v>
       </c>
       <c r="F15">
-        <v>18.70924958806911</v>
+        <v>18.04833272593609</v>
       </c>
       <c r="G15">
-        <v>19.46454352763681</v>
+        <v>19.18024710193714</v>
       </c>
       <c r="H15">
-        <v>6.862959678011372</v>
+        <v>6.853560239576792</v>
       </c>
       <c r="I15">
-        <v>2.802720115178605</v>
+        <v>2.716885374478203</v>
       </c>
       <c r="J15">
-        <v>8.649074664745532</v>
+        <v>8.503806823410892</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.684170824640045</v>
+        <v>10.51155713809438</v>
       </c>
       <c r="M15">
-        <v>13.92921353910977</v>
+        <v>8.359283255906991</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.692693253312937</v>
       </c>
       <c r="O15">
-        <v>10.52784052196255</v>
+        <v>14.01114531542448</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.61927086898048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.63415146888767</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.12545399380281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.33497251954251</v>
+        <v>15.29036370749759</v>
       </c>
       <c r="C16">
-        <v>9.097163583396419</v>
+        <v>9.197130779301737</v>
       </c>
       <c r="D16">
-        <v>6.247381164839231</v>
+        <v>6.384407318408465</v>
       </c>
       <c r="E16">
-        <v>7.014433455645679</v>
+        <v>7.076989184838597</v>
       </c>
       <c r="F16">
-        <v>18.77404842906349</v>
+        <v>18.24883409492209</v>
       </c>
       <c r="G16">
-        <v>19.60451157012414</v>
+        <v>18.74910909716595</v>
       </c>
       <c r="H16">
-        <v>6.666828312018523</v>
+        <v>6.653670048030588</v>
       </c>
       <c r="I16">
-        <v>2.896752171830316</v>
+        <v>2.796859721079693</v>
       </c>
       <c r="J16">
-        <v>8.723548881443847</v>
+        <v>8.744644467925523</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.677454318438778</v>
+        <v>10.64677408231162</v>
       </c>
       <c r="M16">
-        <v>13.5578071957509</v>
+        <v>8.495732688123713</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.690488007531911</v>
       </c>
       <c r="O16">
-        <v>10.31284067126725</v>
+        <v>13.64002597740484</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.74262722771145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.40868651826116</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.33556649208296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.99589735344546</v>
+        <v>14.952482069683</v>
       </c>
       <c r="C17">
-        <v>8.967464703601131</v>
+        <v>9.067913484588544</v>
       </c>
       <c r="D17">
-        <v>6.394726791821503</v>
+        <v>6.521431112606825</v>
       </c>
       <c r="E17">
-        <v>7.298122410000457</v>
+        <v>7.364299793039482</v>
       </c>
       <c r="F17">
-        <v>19.18578634607304</v>
+        <v>18.69276752966933</v>
       </c>
       <c r="G17">
-        <v>20.12518275256769</v>
+        <v>19.01695302326204</v>
       </c>
       <c r="H17">
-        <v>5.951640169650697</v>
+        <v>5.934773482750373</v>
       </c>
       <c r="I17">
-        <v>2.949521256690903</v>
+        <v>2.842364830480526</v>
       </c>
       <c r="J17">
-        <v>8.837260454534537</v>
+        <v>8.927052605540768</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.681782190147637</v>
+        <v>10.78951505691655</v>
       </c>
       <c r="M17">
-        <v>13.29729068341717</v>
+        <v>8.650218527352834</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.695128795416212</v>
       </c>
       <c r="O17">
-        <v>10.44803680891667</v>
+        <v>13.38443398135727</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.99104360676194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.54384659699121</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.60095692521929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.7593185190804</v>
+        <v>14.70460354389439</v>
       </c>
       <c r="C18">
-        <v>8.846688917808031</v>
+        <v>8.982870092809177</v>
       </c>
       <c r="D18">
-        <v>6.772310686603973</v>
+        <v>6.903271914232779</v>
       </c>
       <c r="E18">
-        <v>7.971589023440188</v>
+        <v>8.039572318713502</v>
       </c>
       <c r="F18">
-        <v>19.96988425054921</v>
+        <v>19.44782653595353</v>
       </c>
       <c r="G18">
-        <v>21.07273971651318</v>
+        <v>19.80212814241676</v>
       </c>
       <c r="H18">
-        <v>4.739344819645106</v>
+        <v>4.717347805077112</v>
       </c>
       <c r="I18">
-        <v>2.960970856451187</v>
+        <v>2.84927757296312</v>
       </c>
       <c r="J18">
-        <v>9.004900533426289</v>
+        <v>9.110620731930208</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.771057222720112</v>
+        <v>10.97726007081696</v>
       </c>
       <c r="M18">
-        <v>13.10338819050237</v>
+        <v>8.855360819596484</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.780889195089447</v>
       </c>
       <c r="O18">
-        <v>10.89731358401484</v>
+        <v>13.20125221820835</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.39346495589491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.00139792868696</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.9781616589439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61191304259002</v>
+        <v>14.53726001535231</v>
       </c>
       <c r="C19">
-        <v>8.7960441811598</v>
+        <v>8.996383173185091</v>
       </c>
       <c r="D19">
-        <v>7.314892183874477</v>
+        <v>7.458575981124824</v>
       </c>
       <c r="E19">
-        <v>9.033409337881814</v>
+        <v>9.101589245042781</v>
       </c>
       <c r="F19">
-        <v>20.97502063219643</v>
+        <v>20.38639746194778</v>
       </c>
       <c r="G19">
-        <v>22.24914769061742</v>
+        <v>20.84870410675961</v>
       </c>
       <c r="H19">
-        <v>3.3280662634708</v>
+        <v>3.298048094335578</v>
       </c>
       <c r="I19">
-        <v>2.955855686724799</v>
+        <v>2.846085834566532</v>
       </c>
       <c r="J19">
-        <v>9.197963071073625</v>
+        <v>9.289372411982155</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.023966785283972</v>
+        <v>11.18345945499918</v>
       </c>
       <c r="M19">
-        <v>12.99186217315784</v>
+        <v>9.082197838126179</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.026702250019267</v>
       </c>
       <c r="O19">
-        <v>11.56801124313693</v>
+        <v>13.10415276916836</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.87572717270343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.6856121616773</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.40909891390349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.75404703322403</v>
+        <v>14.63571296835056</v>
       </c>
       <c r="C20">
-        <v>8.852260691341542</v>
+        <v>9.188786311233194</v>
       </c>
       <c r="D20">
-        <v>8.256875311537252</v>
+        <v>8.436410099456468</v>
       </c>
       <c r="E20">
-        <v>10.96886310038852</v>
+        <v>11.03805650503376</v>
       </c>
       <c r="F20">
-        <v>22.6171689199932</v>
+        <v>21.85288156420099</v>
       </c>
       <c r="G20">
-        <v>24.1294504033598</v>
+        <v>22.70682718528425</v>
       </c>
       <c r="H20">
-        <v>1.914682301236125</v>
+        <v>1.875304667696695</v>
       </c>
       <c r="I20">
-        <v>2.869506725647076</v>
+        <v>2.772178560287555</v>
       </c>
       <c r="J20">
-        <v>9.474055939800351</v>
+        <v>9.443762639863206</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.665170788896141</v>
+        <v>11.4257776327412</v>
       </c>
       <c r="M20">
-        <v>13.09947580099077</v>
+        <v>9.411589650403499</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.651201397548253</v>
       </c>
       <c r="O20">
-        <v>12.7866806513923</v>
+        <v>13.23627103343643</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.61049754412871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.93152068570531</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.01303235725736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.59766037950641</v>
+        <v>15.44320576025765</v>
       </c>
       <c r="C21">
-        <v>9.173091832585047</v>
+        <v>9.607936987143407</v>
       </c>
       <c r="D21">
-        <v>8.699831644443581</v>
+        <v>8.966424962979747</v>
       </c>
       <c r="E21">
-        <v>11.52207085926928</v>
+        <v>11.60807814274139</v>
       </c>
       <c r="F21">
-        <v>23.08220337682479</v>
+        <v>21.94634586502723</v>
       </c>
       <c r="G21">
-        <v>24.56404762968389</v>
+        <v>24.47521222045242</v>
       </c>
       <c r="H21">
-        <v>1.658289645281455</v>
+        <v>1.637270298374935</v>
       </c>
       <c r="I21">
-        <v>2.695708005153491</v>
+        <v>2.627432720353768</v>
       </c>
       <c r="J21">
-        <v>9.4543525149227</v>
+        <v>8.849469589734369</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.833934220740866</v>
+        <v>11.16552373664078</v>
       </c>
       <c r="M21">
-        <v>13.74628709299976</v>
+        <v>9.325081807577028</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.799287159164711</v>
       </c>
       <c r="O21">
-        <v>13.48825226998891</v>
+        <v>13.88743116631572</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.67861930961653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.65901294467991</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.81655971740617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.13879935217641</v>
+        <v>15.96351606075593</v>
       </c>
       <c r="C22">
-        <v>9.351230075352911</v>
+        <v>9.839223379778705</v>
       </c>
       <c r="D22">
-        <v>8.936343361352838</v>
+        <v>9.261840962823809</v>
       </c>
       <c r="E22">
-        <v>11.78387297904213</v>
+        <v>11.88290168969074</v>
       </c>
       <c r="F22">
-        <v>23.34354757043976</v>
+        <v>21.95110550918132</v>
       </c>
       <c r="G22">
-        <v>24.81917425767307</v>
+        <v>25.74340908831602</v>
       </c>
       <c r="H22">
-        <v>1.61105927526614</v>
+        <v>1.620204443625114</v>
       </c>
       <c r="I22">
-        <v>2.574328541442105</v>
+        <v>2.522027663593516</v>
       </c>
       <c r="J22">
-        <v>9.438165496656602</v>
+        <v>8.503314171125195</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.909150253800505</v>
+        <v>10.99571392619256</v>
       </c>
       <c r="M22">
-        <v>14.15120492313449</v>
+        <v>9.267838567505263</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.861439151664701</v>
       </c>
       <c r="O22">
-        <v>13.87837227587512</v>
+        <v>14.29387212846102</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.71357340394668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.06500170974982</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.66561143285259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.86120629792301</v>
+        <v>15.69612695376495</v>
       </c>
       <c r="C23">
-        <v>9.227860600558678</v>
+        <v>9.690334632112325</v>
       </c>
       <c r="D23">
-        <v>8.804918940116274</v>
+        <v>9.091118464731917</v>
       </c>
       <c r="E23">
-        <v>11.64398796645157</v>
+        <v>11.73339336904728</v>
       </c>
       <c r="F23">
-        <v>23.23044066464247</v>
+        <v>22.00571385481627</v>
       </c>
       <c r="G23">
-        <v>24.72834557265871</v>
+        <v>24.9368420838921</v>
       </c>
       <c r="H23">
-        <v>1.587705872154796</v>
+        <v>1.571460587233046</v>
       </c>
       <c r="I23">
-        <v>2.626567374495282</v>
+        <v>2.562737838597002</v>
       </c>
       <c r="J23">
-        <v>9.454494113117454</v>
+        <v>8.734930467831129</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.870571432555342</v>
+        <v>11.10621842642154</v>
       </c>
       <c r="M23">
-        <v>13.9305265209088</v>
+        <v>9.326885021361274</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.830886298921808</v>
       </c>
       <c r="O23">
-        <v>13.66603774064327</v>
+        <v>14.07398113527607</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.71400472023331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.84334743188879</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.78694761370804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.74574148864911</v>
+        <v>14.6250534537419</v>
       </c>
       <c r="C24">
-        <v>8.798234753358924</v>
+        <v>9.13639024107529</v>
       </c>
       <c r="D24">
-        <v>8.301292064129841</v>
+        <v>8.481977403948296</v>
       </c>
       <c r="E24">
-        <v>11.10089912396128</v>
+        <v>11.17012380899434</v>
       </c>
       <c r="F24">
-        <v>22.76995033834003</v>
+        <v>21.9983897228583</v>
       </c>
       <c r="G24">
-        <v>24.33317260788655</v>
+        <v>22.88589859042539</v>
       </c>
       <c r="H24">
-        <v>1.894227309666808</v>
+        <v>1.854740181877809</v>
       </c>
       <c r="I24">
-        <v>2.850676377013044</v>
+        <v>2.749669574446696</v>
       </c>
       <c r="J24">
-        <v>9.509296584894239</v>
+        <v>9.479386215789766</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.719360182538059</v>
+        <v>11.47383170289886</v>
       </c>
       <c r="M24">
-        <v>13.07214816631896</v>
+        <v>9.463766341781415</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.704563935495401</v>
       </c>
       <c r="O24">
-        <v>12.8420355994254</v>
+        <v>13.21056257611943</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.69702354890445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.98842109560685</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.09305672148158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43552105709943</v>
+        <v>13.37281641792046</v>
       </c>
       <c r="C25">
-        <v>8.317229550809259</v>
+        <v>8.453350804350226</v>
       </c>
       <c r="D25">
-        <v>7.726822467260777</v>
+        <v>7.882333875516934</v>
       </c>
       <c r="E25">
-        <v>10.48545292819625</v>
+        <v>10.56233754619345</v>
       </c>
       <c r="F25">
-        <v>22.29861563158277</v>
+        <v>21.65983819035676</v>
       </c>
       <c r="G25">
-        <v>23.95744550728654</v>
+        <v>22.57323496451223</v>
       </c>
       <c r="H25">
-        <v>2.239999979784623</v>
+        <v>2.184208006307536</v>
       </c>
       <c r="I25">
-        <v>3.105960050217294</v>
+        <v>2.973644856912207</v>
       </c>
       <c r="J25">
-        <v>9.580576968614059</v>
+        <v>9.594472957122592</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.55053946488162</v>
+        <v>11.77864390323269</v>
       </c>
       <c r="M25">
-        <v>12.07831177735957</v>
+        <v>9.525736592079518</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.54987990656261</v>
       </c>
       <c r="O25">
-        <v>11.89420078383042</v>
+        <v>12.19271688144762</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.70611355854535</v>
+        <v>12.01752084651031</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.19100264681375</v>
       </c>
     </row>
   </sheetData>
